--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - MIR.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - MIR.xlsx
@@ -16,9 +16,12 @@
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="14" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,6 +32,161 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>INAP-QA</author>
+  </authors>
+  <commentList>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>INAP-QA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Agregar el Usuario con el que da acceso a la plataforma</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>INAP-QA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esta opcion se habilita una ves que la MIR sea enviada a revisión 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>INAP-QA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esta opción se habilita cuando la MIR pase a revisión </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>INAP-QA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esta opción se habilita una cuando la MIR este en estatus Esperando Revisión </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F61" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>INAP-QA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esta opción se habilita cuando la MIR pase a estado autorización </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F62" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>INAP-QA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esta opción se habilita cuando la MIR pase a estado autorización </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADOLFO ANGEL GARCIA</author>
@@ -113,10 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="126">
-  <si>
-    <t xml:space="preserve">Tester: Iris Lechuga </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="130">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -163,18 +318,6 @@
     <t xml:space="preserve">Busqueda Correcta </t>
   </si>
   <si>
-    <t xml:space="preserve">Exportar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generación correcta </t>
-  </si>
-  <si>
-    <t>Filtrado por página</t>
-  </si>
-  <si>
-    <t>Se realiza muestran correctamente los número de registros consultados</t>
-  </si>
-  <si>
     <t>Busqueda correcta por el filtro seleccionado</t>
   </si>
   <si>
@@ -343,9 +486,6 @@
     <t>Capturador</t>
   </si>
   <si>
-    <t>iclechugacapturador</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enviar a un capturador o verificar para su revisión </t>
   </si>
   <si>
@@ -373,15 +513,6 @@
     <t xml:space="preserve">Filtro Por Institución </t>
   </si>
   <si>
-    <t xml:space="preserve">Opciones Comentarios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opciones Eliminar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editar </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancelar </t>
   </si>
   <si>
@@ -490,14 +621,138 @@
     <t xml:space="preserve">Cerrar Sesión </t>
   </si>
   <si>
-    <t>Direcciona al ménu inicio</t>
+    <t xml:space="preserve">Usuario: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recibir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega de Información al Usuario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceso al menú principal </t>
+  </si>
+  <si>
+    <t>Permite ejecutar cualquiera de las aplicaciones de la plataforma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite ir  al menú principal de la aplicación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicio MIR / Opciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comentarios </t>
+  </si>
+  <si>
+    <t>Permite visualizar comentarios así como también añadir y cancelar un nuevo comentario</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Opciones / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Comentarios </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Opciones / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Eliminar </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Opciones /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Editar </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Opciones /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Eliminar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Opciones / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Editar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +808,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -913,6 +1176,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -964,15 +1236,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Énfasis3" xfId="2" builtinId="40"/>
@@ -1097,7 +1360,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1876,7 +2138,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2576,6 +2837,23 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Ficha Técnica"/>
+      <sheetName val="GRAFICOS"/>
+      <sheetName val="Datos"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45084.664735763887" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="281">
   <cacheSource type="worksheet">
@@ -6004,7 +6282,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A21:A22" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -6051,7 +6329,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -6168,7 +6446,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:C64" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -6195,8 +6473,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:J263" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" headerRowCellStyle="60% - Énfasis3">
-  <autoFilter ref="A6:J263"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:J264" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" headerRowCellStyle="60% - Énfasis3">
+  <autoFilter ref="A6:J264"/>
   <tableColumns count="10">
     <tableColumn id="1" name="N° Caso"/>
     <tableColumn id="2" name="Menús" dataDxfId="3"/>
@@ -6457,13 +6735,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:J286"/>
+  <dimension ref="A1:J287"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6481,105 +6759,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="A1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="22" t="s">
+      <c r="A3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" s="15" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>10</v>
-      </c>
       <c r="J6" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -6587,19 +6865,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -6608,19 +6886,17 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -6629,19 +6905,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -6650,19 +6926,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -6671,40 +6947,40 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -6713,19 +6989,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -6734,19 +7010,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -6755,19 +7031,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -6776,19 +7052,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -6797,19 +7073,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -6818,19 +7094,19 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -6839,19 +7115,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -6860,19 +7136,19 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -6881,19 +7157,19 @@
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -6902,19 +7178,19 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -6923,19 +7199,19 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -6944,19 +7220,19 @@
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J24" s="1"/>
     </row>
@@ -6965,19 +7241,19 @@
         <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -6986,19 +7262,19 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -7007,19 +7283,19 @@
         <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J27" s="1"/>
     </row>
@@ -7028,19 +7304,19 @@
         <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J28" s="1"/>
     </row>
@@ -7049,19 +7325,19 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J29" s="1"/>
     </row>
@@ -7070,19 +7346,19 @@
         <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J30" s="1"/>
     </row>
@@ -7091,20 +7367,20 @@
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -7113,20 +7389,20 @@
         <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J32" s="1"/>
     </row>
@@ -7135,19 +7411,19 @@
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -7156,184 +7432,181 @@
         <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="I34" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>29</v>
       </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>30</v>
-      </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>31</v>
       </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>32</v>
-      </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>33</v>
       </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>34</v>
       </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>35</v>
-      </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>98</v>
@@ -7342,696 +7615,714 @@
     </row>
     <row r="43" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>39</v>
       </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" t="s">
-        <v>83</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>40</v>
       </c>
-      <c r="B46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>41</v>
-      </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>42</v>
       </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>43</v>
       </c>
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>44</v>
       </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>45</v>
-      </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
         <v>46</v>
       </c>
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="F53" t="s">
+        <v>73</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J53" s="1"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>49</v>
       </c>
-      <c r="B55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" t="s">
         <v>82</v>
       </c>
-      <c r="D55" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>50</v>
-      </c>
-      <c r="B56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" t="s">
-        <v>91</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A57">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>51</v>
       </c>
-      <c r="B57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" t="s">
         <v>82</v>
       </c>
-      <c r="D57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>52</v>
-      </c>
-      <c r="B58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" t="s">
-        <v>91</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>53</v>
       </c>
-      <c r="B59" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" t="s">
         <v>82</v>
       </c>
-      <c r="D59" t="s">
-        <v>91</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="F60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>54</v>
       </c>
-      <c r="B60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" t="s">
         <v>82</v>
       </c>
-      <c r="D60" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>55</v>
-      </c>
-      <c r="B61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" t="s">
-        <v>91</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D64" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A66">
+        <v>59</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>60</v>
       </c>
-      <c r="B66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" t="s">
-        <v>60</v>
-      </c>
-      <c r="D66" t="s">
-        <v>91</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>61</v>
       </c>
-      <c r="B67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" t="s">
-        <v>91</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>62</v>
-      </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
+        <v>62</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>63</v>
       </c>
-      <c r="B69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" t="s">
-        <v>91</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="B70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" t="s">
+        <v>82</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>64</v>
       </c>
-      <c r="B70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" t="s">
-        <v>91</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>65</v>
-      </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D72" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
+        <v>66</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" t="s">
+        <v>73</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>67</v>
       </c>
-      <c r="B73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I73" s="2" t="s">
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>68</v>
+      </c>
+      <c r="B75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" t="s">
+        <v>82</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>68</v>
-      </c>
-      <c r="B74" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>69</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B76" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" t="s">
         <v>82</v>
       </c>
-      <c r="D75" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="F76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J76" s="1"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -8586,8 +8877,8 @@
     <row r="260" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J260" s="1"/>
     </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J264" s="1"/>
+    <row r="261" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J261" s="1"/>
     </row>
     <row r="265" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J265" s="1"/>
@@ -8604,8 +8895,8 @@
     <row r="269" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J269" s="1"/>
     </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J272" s="1"/>
+    <row r="270" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J270" s="1"/>
     </row>
     <row r="273" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J273" s="1"/>
@@ -8644,13 +8935,16 @@
       <c r="J284" s="1"/>
     </row>
     <row r="285" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E285" t="s">
-        <v>21</v>
-      </c>
+      <c r="J285" s="1"/>
     </row>
     <row r="286" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E286" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E287" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -8668,17 +8962,24 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G287</xm:sqref>
+          <xm:sqref>G7:G9 G13:G288</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx]Datos'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G10:G12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8710,15 +9011,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -8726,7 +9027,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -8734,7 +9035,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -8742,7 +9043,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7" s="11">
         <v>3</v>
@@ -8750,7 +9051,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -8759,94 +9060,94 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="38"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="38"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="40"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="38"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="40"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="38"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="38"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="38"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="38"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="38"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="40"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="38"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="40"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="38"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="40"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="38"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="40"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="23"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="38"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="40"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="41"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="43"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8871,51 +9172,51 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - MIR.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - MIR.xlsx
@@ -21,7 +21,7 @@
   </externalReferences>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -375,9 +375,6 @@
     <t>Finalizado</t>
   </si>
   <si>
-    <t>Ingresar sitio wed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ingresar las Credenciales </t>
   </si>
   <si>
@@ -746,6 +743,9 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>Ingresar sitio web</t>
   </si>
 </sst>
 </file>
@@ -6282,7 +6282,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A21:A22" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -6329,7 +6329,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -6446,7 +6446,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:C64" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -6741,7 +6741,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6792,7 +6792,7 @@
       <c r="C3" s="34"/>
       <c r="D3" s="35"/>
       <c r="E3" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="32"/>
@@ -6819,7 +6819,7 @@
       <c r="B5" s="28"/>
       <c r="C5" s="29"/>
       <c r="D5" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="41"/>
@@ -6865,19 +6865,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -6886,14 +6886,14 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>14</v>
@@ -6905,13 +6905,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>26</v>
@@ -6926,19 +6926,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -6947,19 +6947,19 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -6968,19 +6968,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -6989,19 +6989,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -7010,19 +7010,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -7031,19 +7031,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -7052,19 +7052,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -7073,16 +7073,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
@@ -7094,16 +7094,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>15</v>
@@ -7115,19 +7115,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -7136,19 +7136,19 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -7157,19 +7157,19 @@
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -7178,19 +7178,19 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -7199,19 +7199,19 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -7220,19 +7220,19 @@
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="J24" s="1"/>
     </row>
@@ -7241,19 +7241,19 @@
         <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -7262,19 +7262,19 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -7283,19 +7283,19 @@
         <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J27" s="1"/>
     </row>
@@ -7304,19 +7304,19 @@
         <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J28" s="1"/>
     </row>
@@ -7325,19 +7325,19 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" t="s">
         <v>68</v>
-      </c>
-      <c r="I29" t="s">
-        <v>69</v>
       </c>
       <c r="J29" s="1"/>
     </row>
@@ -7346,19 +7346,19 @@
         <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="J30" s="1"/>
     </row>
@@ -7367,20 +7367,20 @@
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -7389,20 +7389,20 @@
         <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J32" s="1"/>
     </row>
@@ -7411,19 +7411,19 @@
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -7432,37 +7432,37 @@
         <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="J35" s="1"/>
     </row>
@@ -7471,19 +7471,19 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
         <v>76</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="I36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J36" s="1"/>
     </row>
@@ -7492,16 +7492,16 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
         <v>76</v>
       </c>
-      <c r="D37" t="s">
-        <v>77</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>15</v>
@@ -7513,16 +7513,16 @@
         <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
         <v>76</v>
       </c>
-      <c r="D38" t="s">
-        <v>77</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>15</v>
@@ -7534,19 +7534,19 @@
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
         <v>76</v>
       </c>
-      <c r="D39" t="s">
-        <v>77</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J39" s="1"/>
     </row>
@@ -7555,19 +7555,19 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
         <v>76</v>
       </c>
-      <c r="D40" t="s">
-        <v>77</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J40" s="1"/>
     </row>
@@ -7576,19 +7576,19 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s">
         <v>76</v>
       </c>
-      <c r="D41" t="s">
-        <v>77</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J41" s="1"/>
     </row>
@@ -7597,19 +7597,19 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J42" s="1"/>
     </row>
@@ -7618,19 +7618,19 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="J43" s="1"/>
     </row>
@@ -7639,19 +7639,19 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="J44" s="1"/>
     </row>
@@ -7660,19 +7660,19 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="J45" s="1"/>
     </row>
@@ -7681,19 +7681,19 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="J46" s="1"/>
     </row>
@@ -7702,19 +7702,19 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J47" s="1"/>
     </row>
@@ -7723,19 +7723,19 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J48" s="1"/>
     </row>
@@ -7744,19 +7744,19 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J49" s="1"/>
     </row>
@@ -7765,19 +7765,19 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J50" s="1"/>
     </row>
@@ -7786,19 +7786,19 @@
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J51" s="1"/>
     </row>
@@ -7807,19 +7807,19 @@
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -7827,19 +7827,19 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -7847,19 +7847,19 @@
         <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J54" s="1"/>
     </row>
@@ -7868,19 +7868,19 @@
         <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J55" s="1"/>
     </row>
@@ -7889,19 +7889,19 @@
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J56" s="1"/>
     </row>
@@ -7910,16 +7910,16 @@
         <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>15</v>
@@ -7931,16 +7931,16 @@
         <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>15</v>
@@ -7952,19 +7952,19 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J59" s="1"/>
     </row>
@@ -7973,19 +7973,19 @@
         <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -7994,19 +7994,19 @@
         <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J61" s="1"/>
     </row>
@@ -8015,19 +8015,19 @@
         <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -8036,19 +8036,19 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="J63" s="1"/>
     </row>
@@ -8057,19 +8057,19 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="J64" s="1"/>
     </row>
@@ -8078,19 +8078,19 @@
         <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="J65" s="1"/>
     </row>
@@ -8099,19 +8099,19 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="J66" s="1"/>
     </row>
@@ -8120,19 +8120,19 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="J67" s="1"/>
     </row>
@@ -8141,19 +8141,19 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J68" s="1"/>
     </row>
@@ -8162,19 +8162,19 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D69" t="s">
-        <v>82</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="I69" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J69" s="1"/>
     </row>
@@ -8183,19 +8183,19 @@
         <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J70" s="1"/>
     </row>
@@ -8204,19 +8204,19 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D71" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="J71" s="1"/>
     </row>
@@ -8225,19 +8225,19 @@
         <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J72" s="1"/>
     </row>
@@ -8246,19 +8246,19 @@
         <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J73" s="1"/>
     </row>
@@ -8267,19 +8267,19 @@
         <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="1"/>
     </row>
@@ -8288,19 +8288,19 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J75" s="1"/>
     </row>
@@ -8309,19 +8309,19 @@
         <v>69</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J76" s="1"/>
     </row>
@@ -8977,7 +8977,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx]Datos'!#REF!</xm:f>
+            <xm:f>'C:\Users\INAP-QA\Documents\GITHUB\All-documents-\SIEDNL (PDR)\ENTREGABLES\Matriz de Pruebas\Matris para Usuarios\[Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx]Datos'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G10:G12</xm:sqref>
         </x14:dataValidation>

--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - MIR.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - MIR.xlsx
@@ -21,7 +21,7 @@
   </externalReferences>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="131">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t>Ingresar sitio web</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1245,10 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1360,6 +1366,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2138,6 +2145,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2857,7 +2865,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45084.664735763887" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="281">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:J1048576" sheet="MIR"/>
+    <worksheetSource ref="A6:K1048576" sheet="MIR"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="N° Caso" numFmtId="0">
@@ -6282,54 +6290,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A21:A22" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="10">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -6445,8 +6406,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:C64" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -6472,19 +6433,67 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A21:A22" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="10">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:J264" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" headerRowCellStyle="60% - Énfasis3">
-  <autoFilter ref="A6:J264"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:K264" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" headerRowCellStyle="60% - Énfasis3">
+  <autoFilter ref="A6:K264"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="N° Caso"/>
-    <tableColumn id="2" name="Menús" dataDxfId="3"/>
+    <tableColumn id="2" name="Menús" dataDxfId="4"/>
     <tableColumn id="3" name="Submenú"/>
     <tableColumn id="4" name="Perfil"/>
     <tableColumn id="5" name="Usuario "/>
-    <tableColumn id="6" name="Acción" dataDxfId="2"/>
+    <tableColumn id="6" name="Acción" dataDxfId="3"/>
     <tableColumn id="7" name="Estatus de Prueba"/>
-    <tableColumn id="8" name="Resultado Obtenido" dataDxfId="1"/>
-    <tableColumn id="9" name="Resultado Esperado" dataDxfId="0"/>
+    <tableColumn id="8" name="Resultado Obtenido" dataDxfId="2"/>
+    <tableColumn id="9" name="Resultado Esperado" dataDxfId="1"/>
+    <tableColumn id="10" name="Comentarios" dataDxfId="0"/>
     <tableColumn id="14" name="Fecha "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6737,28 +6746,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:J287"/>
+  <dimension ref="A1:K287"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
     <col min="8" max="8" width="35.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="33.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>28</v>
       </c>
@@ -6771,8 +6780,9 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -6783,8 +6793,9 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
-    </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" s="15" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>29</v>
       </c>
@@ -6799,8 +6810,9 @@
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:11" s="15" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -6811,8 +6823,9 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
@@ -6827,8 +6840,9 @@
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
-    </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="K5" s="43"/>
+    </row>
+    <row r="6" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
@@ -6856,11 +6870,14 @@
       <c r="I6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6879,9 +6896,9 @@
       <c r="I7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6898,9 +6915,9 @@
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -6919,9 +6936,9 @@
       <c r="I9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -6940,9 +6957,9 @@
       <c r="I10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -6961,9 +6978,9 @@
       <c r="I11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -6982,9 +6999,9 @@
       <c r="I12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -7003,9 +7020,9 @@
       <c r="I13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -7024,9 +7041,9 @@
       <c r="I14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -7045,9 +7062,9 @@
       <c r="I15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -7066,9 +7083,9 @@
       <c r="I16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -7087,9 +7104,9 @@
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -7108,9 +7125,9 @@
       <c r="I18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -7129,9 +7146,9 @@
       <c r="I19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -7150,9 +7167,9 @@
       <c r="I20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -7171,9 +7188,9 @@
       <c r="I21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -7192,9 +7209,9 @@
       <c r="I22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
@@ -7213,9 +7230,9 @@
       <c r="I23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
@@ -7234,9 +7251,9 @@
       <c r="I24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
@@ -7255,9 +7272,9 @@
       <c r="I25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
@@ -7276,9 +7293,9 @@
       <c r="I26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
@@ -7297,9 +7314,9 @@
       <c r="I27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
@@ -7318,9 +7335,9 @@
       <c r="I28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>23</v>
       </c>
@@ -7339,9 +7356,10 @@
       <c r="I29" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="J29"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
@@ -7360,9 +7378,9 @@
       <c r="I30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
@@ -7382,9 +7400,9 @@
       <c r="I31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
@@ -7404,9 +7422,10 @@
       <c r="I32" t="s">
         <v>90</v>
       </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J32"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27</v>
       </c>
@@ -7425,9 +7444,9 @@
       <c r="I33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28</v>
       </c>
@@ -7446,9 +7465,9 @@
       <c r="I34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>45</v>
       </c>
@@ -7464,9 +7483,9 @@
       <c r="I35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>29</v>
       </c>
@@ -7485,9 +7504,9 @@
       <c r="I36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>30</v>
       </c>
@@ -7506,9 +7525,9 @@
       <c r="I37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>31</v>
       </c>
@@ -7527,9 +7546,9 @@
       <c r="I38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>32</v>
       </c>
@@ -7548,9 +7567,9 @@
       <c r="I39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>33</v>
       </c>
@@ -7569,9 +7588,9 @@
       <c r="I40" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>34</v>
       </c>
@@ -7590,9 +7609,9 @@
       <c r="I41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>35</v>
       </c>
@@ -7611,9 +7630,9 @@
       <c r="I42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>36</v>
       </c>
@@ -7632,9 +7651,9 @@
       <c r="I43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>37</v>
       </c>
@@ -7653,9 +7672,9 @@
       <c r="I44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>38</v>
       </c>
@@ -7674,9 +7693,9 @@
       <c r="I45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>39</v>
       </c>
@@ -7695,9 +7714,9 @@
       <c r="I46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>40</v>
       </c>
@@ -7716,9 +7735,9 @@
       <c r="I47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>41</v>
       </c>
@@ -7737,9 +7756,9 @@
       <c r="I48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>42</v>
       </c>
@@ -7758,9 +7777,9 @@
       <c r="I49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>43</v>
       </c>
@@ -7779,9 +7798,9 @@
       <c r="I50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>44</v>
       </c>
@@ -7800,9 +7819,9 @@
       <c r="I51" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>45</v>
       </c>
@@ -7822,7 +7841,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>46</v>
       </c>
@@ -7842,7 +7861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>47</v>
       </c>
@@ -7861,9 +7880,9 @@
       <c r="I54" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>48</v>
       </c>
@@ -7882,9 +7901,9 @@
       <c r="I55" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>49</v>
       </c>
@@ -7903,9 +7922,9 @@
       <c r="I56" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>50</v>
       </c>
@@ -7924,9 +7943,9 @@
       <c r="I57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>51</v>
       </c>
@@ -7945,9 +7964,9 @@
       <c r="I58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>52</v>
       </c>
@@ -7966,9 +7985,9 @@
       <c r="I59" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>53</v>
       </c>
@@ -7987,9 +8006,9 @@
       <c r="I60" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>54</v>
       </c>
@@ -8008,9 +8027,9 @@
       <c r="I61" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>55</v>
       </c>
@@ -8029,9 +8048,9 @@
       <c r="I62" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>56</v>
       </c>
@@ -8050,9 +8069,9 @@
       <c r="I63" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>57</v>
       </c>
@@ -8071,9 +8090,9 @@
       <c r="I64" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>58</v>
       </c>
@@ -8092,9 +8111,9 @@
       <c r="I65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>59</v>
       </c>
@@ -8113,9 +8132,9 @@
       <c r="I66" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>60</v>
       </c>
@@ -8134,9 +8153,9 @@
       <c r="I67" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>61</v>
       </c>
@@ -8155,9 +8174,9 @@
       <c r="I68" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>62</v>
       </c>
@@ -8176,9 +8195,9 @@
       <c r="I69" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>63</v>
       </c>
@@ -8197,9 +8216,9 @@
       <c r="I70" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>64</v>
       </c>
@@ -8218,9 +8237,9 @@
       <c r="I71" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>65</v>
       </c>
@@ -8239,9 +8258,9 @@
       <c r="I72" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>66</v>
       </c>
@@ -8260,9 +8279,9 @@
       <c r="I73" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>67</v>
       </c>
@@ -8281,9 +8300,9 @@
       <c r="I74" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>68</v>
       </c>
@@ -8302,9 +8321,9 @@
       <c r="I75" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>69</v>
       </c>
@@ -8323,626 +8342,626 @@
       <c r="I76" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J101" s="1"/>
-    </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J103" s="1"/>
-    </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J104" s="1"/>
-    </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J105" s="1"/>
-    </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J107" s="1"/>
-    </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J108" s="1"/>
-    </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J109" s="1"/>
-    </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J110" s="1"/>
-    </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J111" s="1"/>
-    </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J113" s="1"/>
-    </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J114" s="1"/>
-    </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J115" s="1"/>
-    </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J116" s="1"/>
-    </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J117" s="1"/>
-    </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J118" s="1"/>
-    </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J119" s="1"/>
-    </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J120" s="1"/>
-    </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J122" s="1"/>
-    </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J123" s="1"/>
-    </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J124" s="1"/>
-    </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J125" s="1"/>
-    </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J126" s="1"/>
-    </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J127" s="1"/>
-    </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J128" s="1"/>
-    </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J129" s="1"/>
-    </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J130" s="1"/>
-    </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J131" s="1"/>
-    </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J132" s="1"/>
-    </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J133" s="1"/>
-    </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J134" s="1"/>
-    </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J135" s="1"/>
-    </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J136" s="1"/>
-    </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J137" s="1"/>
-    </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J138" s="1"/>
-    </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J139" s="1"/>
-    </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J140" s="1"/>
-    </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J141" s="1"/>
-    </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J142" s="1"/>
-    </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J143" s="1"/>
-    </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J144" s="1"/>
-    </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J145" s="1"/>
-    </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J146" s="1"/>
-    </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J147" s="1"/>
-    </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J148" s="1"/>
-    </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J149" s="1"/>
-    </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J150" s="1"/>
-    </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J151" s="1"/>
-    </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J152" s="1"/>
-    </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J153" s="1"/>
-    </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J154" s="1"/>
-    </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J155" s="1"/>
-    </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J156" s="1"/>
-    </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J157" s="1"/>
-    </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J158" s="1"/>
-    </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J159" s="1"/>
-    </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J160" s="1"/>
-    </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J161" s="1"/>
-    </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J162" s="1"/>
-    </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J163" s="1"/>
-    </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J164" s="1"/>
-    </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J165" s="1"/>
-    </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J166" s="1"/>
-    </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J167" s="1"/>
-    </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J168" s="1"/>
-    </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J169" s="1"/>
-    </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J170" s="1"/>
-    </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J171" s="1"/>
-    </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J172" s="1"/>
-    </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J173" s="1"/>
-    </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J174" s="1"/>
-    </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J175" s="1"/>
-    </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J176" s="1"/>
-    </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J177" s="1"/>
-    </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J178" s="1"/>
-    </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J179" s="1"/>
-    </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J180" s="1"/>
-    </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J181" s="1"/>
-    </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J182" s="1"/>
-    </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J183" s="1"/>
-    </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J184" s="1"/>
-    </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J185" s="1"/>
-    </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J186" s="1"/>
-    </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J187" s="1"/>
-    </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J188" s="1"/>
-    </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J189" s="1"/>
-    </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J190" s="1"/>
-    </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J191" s="1"/>
-    </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J192" s="1"/>
-    </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J193" s="1"/>
-    </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J194" s="1"/>
-    </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J195" s="1"/>
-    </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J196" s="1"/>
-    </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J197" s="1"/>
-    </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J198" s="1"/>
-    </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J199" s="1"/>
-    </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J200" s="1"/>
-    </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J201" s="1"/>
-    </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J202" s="1"/>
-    </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J203" s="1"/>
-    </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J204" s="1"/>
-    </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J205" s="1"/>
-    </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J206" s="1"/>
-    </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J207" s="1"/>
-    </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J208" s="1"/>
-    </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J209" s="1"/>
-    </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J210" s="1"/>
-    </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J211" s="1"/>
-    </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J212" s="1"/>
-    </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J213" s="1"/>
-    </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J214" s="1"/>
-    </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J215" s="1"/>
-    </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J216" s="1"/>
-    </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J217" s="1"/>
-    </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J218" s="1"/>
-    </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J219" s="1"/>
-    </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J220" s="1"/>
-    </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J221" s="1"/>
-    </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J222" s="1"/>
-    </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J223" s="1"/>
-    </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J224" s="1"/>
-    </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J225" s="1"/>
-    </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J226" s="1"/>
-    </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J227" s="1"/>
-    </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J228" s="1"/>
-    </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J229" s="1"/>
-    </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J230" s="1"/>
-    </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J231" s="1"/>
-    </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J232" s="1"/>
-    </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J233" s="1"/>
-    </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J234" s="1"/>
-    </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J235" s="1"/>
-    </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J236" s="1"/>
-    </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J237" s="1"/>
-    </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J238" s="1"/>
-    </row>
-    <row r="239" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J239" s="1"/>
-    </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J240" s="1"/>
-    </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J241" s="1"/>
-    </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J242" s="1"/>
-    </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J243" s="1"/>
-    </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J244" s="1"/>
-    </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J245" s="1"/>
-    </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J246" s="1"/>
-    </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J247" s="1"/>
-    </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J248" s="1"/>
-    </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J249" s="1"/>
-    </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J250" s="1"/>
-    </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J251" s="1"/>
-    </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J252" s="1"/>
-    </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J253" s="1"/>
-    </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J254" s="1"/>
-    </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J255" s="1"/>
-    </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J256" s="1"/>
-    </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J257" s="1"/>
-    </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J258" s="1"/>
-    </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J259" s="1"/>
-    </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J260" s="1"/>
-    </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J261" s="1"/>
-    </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J265" s="1"/>
-    </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J266" s="1"/>
-    </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J267" s="1"/>
-    </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J268" s="1"/>
-    </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J269" s="1"/>
-    </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J270" s="1"/>
-    </row>
-    <row r="273" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J273" s="1"/>
-    </row>
-    <row r="274" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J274" s="1"/>
-    </row>
-    <row r="275" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J275" s="1"/>
-    </row>
-    <row r="276" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J276" s="1"/>
-    </row>
-    <row r="277" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J277" s="1"/>
-    </row>
-    <row r="278" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J278" s="1"/>
-    </row>
-    <row r="279" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J279" s="1"/>
-    </row>
-    <row r="280" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J280" s="1"/>
-    </row>
-    <row r="281" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J281" s="1"/>
-    </row>
-    <row r="282" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J282" s="1"/>
-    </row>
-    <row r="283" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J283" s="1"/>
-    </row>
-    <row r="284" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J284" s="1"/>
-    </row>
-    <row r="285" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J285" s="1"/>
-    </row>
-    <row r="286" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K129" s="1"/>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K134" s="1"/>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K135" s="1"/>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K137" s="1"/>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K138" s="1"/>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K139" s="1"/>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K140" s="1"/>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K141" s="1"/>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K142" s="1"/>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K147" s="1"/>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K148" s="1"/>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K151" s="1"/>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K152" s="1"/>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K153" s="1"/>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K154" s="1"/>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K155" s="1"/>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K156" s="1"/>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K157" s="1"/>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K158" s="1"/>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K159" s="1"/>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K160" s="1"/>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K161" s="1"/>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K162" s="1"/>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K163" s="1"/>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K164" s="1"/>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K165" s="1"/>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K166" s="1"/>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K167" s="1"/>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K168" s="1"/>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K169" s="1"/>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K170" s="1"/>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K171" s="1"/>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K172" s="1"/>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K173" s="1"/>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K174" s="1"/>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K175" s="1"/>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K176" s="1"/>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K177" s="1"/>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K178" s="1"/>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K179" s="1"/>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K180" s="1"/>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K181" s="1"/>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K182" s="1"/>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K183" s="1"/>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K184" s="1"/>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K185" s="1"/>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K186" s="1"/>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K187" s="1"/>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K188" s="1"/>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K189" s="1"/>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K190" s="1"/>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K191" s="1"/>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K192" s="1"/>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K193" s="1"/>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K194" s="1"/>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K195" s="1"/>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K196" s="1"/>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K197" s="1"/>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K198" s="1"/>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K199" s="1"/>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K200" s="1"/>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K201" s="1"/>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K202" s="1"/>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K203" s="1"/>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K204" s="1"/>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K205" s="1"/>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K206" s="1"/>
+    </row>
+    <row r="207" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K207" s="1"/>
+    </row>
+    <row r="208" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K208" s="1"/>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K209" s="1"/>
+    </row>
+    <row r="210" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K210" s="1"/>
+    </row>
+    <row r="211" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K211" s="1"/>
+    </row>
+    <row r="212" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K212" s="1"/>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K213" s="1"/>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K214" s="1"/>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K215" s="1"/>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K216" s="1"/>
+    </row>
+    <row r="217" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K217" s="1"/>
+    </row>
+    <row r="218" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K218" s="1"/>
+    </row>
+    <row r="219" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K219" s="1"/>
+    </row>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K220" s="1"/>
+    </row>
+    <row r="221" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K221" s="1"/>
+    </row>
+    <row r="222" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K222" s="1"/>
+    </row>
+    <row r="223" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K223" s="1"/>
+    </row>
+    <row r="224" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K224" s="1"/>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K225" s="1"/>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K226" s="1"/>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K227" s="1"/>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K228" s="1"/>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K229" s="1"/>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K230" s="1"/>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K231" s="1"/>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K232" s="1"/>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K233" s="1"/>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K234" s="1"/>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K235" s="1"/>
+    </row>
+    <row r="236" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K236" s="1"/>
+    </row>
+    <row r="237" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K237" s="1"/>
+    </row>
+    <row r="238" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K238" s="1"/>
+    </row>
+    <row r="239" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K239" s="1"/>
+    </row>
+    <row r="240" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K240" s="1"/>
+    </row>
+    <row r="241" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K241" s="1"/>
+    </row>
+    <row r="242" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K242" s="1"/>
+    </row>
+    <row r="243" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K243" s="1"/>
+    </row>
+    <row r="244" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K244" s="1"/>
+    </row>
+    <row r="245" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K245" s="1"/>
+    </row>
+    <row r="246" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K246" s="1"/>
+    </row>
+    <row r="247" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K247" s="1"/>
+    </row>
+    <row r="248" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K248" s="1"/>
+    </row>
+    <row r="249" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K249" s="1"/>
+    </row>
+    <row r="250" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K250" s="1"/>
+    </row>
+    <row r="251" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K251" s="1"/>
+    </row>
+    <row r="252" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K252" s="1"/>
+    </row>
+    <row r="253" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K253" s="1"/>
+    </row>
+    <row r="254" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K254" s="1"/>
+    </row>
+    <row r="255" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K255" s="1"/>
+    </row>
+    <row r="256" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K256" s="1"/>
+    </row>
+    <row r="257" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K257" s="1"/>
+    </row>
+    <row r="258" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K258" s="1"/>
+    </row>
+    <row r="259" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K259" s="1"/>
+    </row>
+    <row r="260" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K260" s="1"/>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K261" s="1"/>
+    </row>
+    <row r="265" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K265" s="1"/>
+    </row>
+    <row r="266" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K266" s="1"/>
+    </row>
+    <row r="267" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K267" s="1"/>
+    </row>
+    <row r="268" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K268" s="1"/>
+    </row>
+    <row r="269" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K269" s="1"/>
+    </row>
+    <row r="270" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K270" s="1"/>
+    </row>
+    <row r="273" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K273" s="1"/>
+    </row>
+    <row r="274" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K274" s="1"/>
+    </row>
+    <row r="275" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K275" s="1"/>
+    </row>
+    <row r="276" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K277" s="1"/>
+    </row>
+    <row r="278" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K278" s="1"/>
+    </row>
+    <row r="279" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K279" s="1"/>
+    </row>
+    <row r="280" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K280" s="1"/>
+    </row>
+    <row r="281" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K281" s="1"/>
+    </row>
+    <row r="282" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K282" s="1"/>
+    </row>
+    <row r="283" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K283" s="1"/>
+    </row>
+    <row r="284" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K284" s="1"/>
+    </row>
+    <row r="285" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K285" s="1"/>
+    </row>
+    <row r="286" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E286" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E287" t="s">
         <v>16</v>
       </c>
@@ -8950,12 +8969,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A1:K2"/>
     <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="G3:K4"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G5:K5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -8968,18 +8987,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G9 G13:G288</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'C:\Users\INAP-QA\Documents\GITHUB\All-documents-\SIEDNL (PDR)\ENTREGABLES\Matriz de Pruebas\Matris para Usuarios\[Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx]Datos'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>G10:G12</xm:sqref>
+          <xm:sqref>G7:G288</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
